--- a/docs/shr-core-Practitioner.xlsx
+++ b/docs/shr-core-Practitioner.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$51</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="319">
   <si>
     <t>Path</t>
   </si>
@@ -150,7 +150,7 @@
   </si>
   <si>
     <t>A person who practices a healing art.
-HumanName is limited to one required value by US-Core. Gender is required by US-Core.</t>
+HumanName is limited to one required value by US-Core. Gender is required by US-Core. US-Core required an identifier, either a NPI (preferred) or tax id.</t>
   </si>
   <si>
     <t>Note that a cab driver no longer fits the bill. You probably would be interested in the organization rather than the individual?</t>
@@ -516,6 +516,10 @@
     <t>Often, specific identities are assigned for the agent.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:Type.coding.code}
+</t>
+  </si>
+  <si>
     <t>PRD-7 (or XCN.1)</t>
   </si>
   <si>
@@ -526,6 +530,32 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>shr-core-NationalProviderIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-NationalProviderIdentifier]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>NationalProviderIdentifier</t>
+  </si>
+  <si>
+    <t>NPI: a unique 10 digit number to allow US healthcare providers to identify themselves in a standard way throughout the healthcare industry.</t>
+  </si>
+  <si>
+    <t>shr-core-TaxIdentificationNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TaxIdentificationNumber]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>TaxIdentificationNumber</t>
+  </si>
+  <si>
+    <t>Tax identification number for the practitioner.</t>
   </si>
   <si>
     <t>Practitioner.active</t>
@@ -1126,7 +1156,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN49"/>
+  <dimension ref="A1:AN51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1136,7 +1166,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="47.42578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1161,7 +1191,7 @@
     <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.0" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.83203125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
@@ -3616,16 +3646,14 @@
         <v>40</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>155</v>
@@ -3643,23 +3671,25 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3668,7 +3698,7 @@
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>40</v>
@@ -3680,22 +3710,18 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M24" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>169</v>
-      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
@@ -3741,44 +3767,46 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>130</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>51</v>
@@ -3793,18 +3821,16 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>40</v>
       </c>
@@ -3852,13 +3878,13 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
@@ -3867,21 +3893,21 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3892,7 +3918,7 @@
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
@@ -3904,22 +3930,22 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
@@ -3964,11 +3990,15 @@
       <c r="AD26" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE26" s="2"/>
+      <c r="AE26" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG26" s="2"/>
+      <c r="AG26" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
       </c>
@@ -3976,21 +4006,21 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3998,10 +4028,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
@@ -4013,17 +4043,17 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4071,11 +4101,15 @@
       <c r="AD27" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE27" s="2"/>
+      <c r="AE27" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG27" s="2"/>
+      <c r="AG27" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4083,13 +4117,13 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
@@ -4097,7 +4131,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4105,10 +4139,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -4120,17 +4154,19 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="N28" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4155,13 +4191,13 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4178,29 +4214,25 @@
       <c r="AD28" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE28" t="s" s="2">
+      <c r="AE28" s="2"/>
+      <c r="AF28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG28" s="2"/>
+      <c r="AH28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
@@ -4208,7 +4240,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4219,7 +4251,7 @@
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
@@ -4231,17 +4263,17 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4301,13 +4333,13 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -4315,7 +4347,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4323,10 +4355,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>40</v>
@@ -4335,20 +4367,20 @@
         <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4373,13 +4405,13 @@
         <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>40</v>
@@ -4396,11 +4428,15 @@
       <c r="AD30" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE30" s="2"/>
+      <c r="AE30" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG30" s="2"/>
+      <c r="AG30" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4408,13 +4444,13 @@
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
@@ -4422,7 +4458,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4433,7 +4469,7 @@
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>40</v>
@@ -4442,19 +4478,21 @@
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
       </c>
@@ -4513,13 +4551,13 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -4527,7 +4565,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4538,7 +4576,7 @@
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
@@ -4550,16 +4588,18 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>53</v>
+        <v>224</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>62</v>
+        <v>225</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>63</v>
+        <v>226</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4621,10 +4661,10 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
@@ -4632,11 +4672,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4655,17 +4695,15 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>68</v>
+        <v>232</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4728,7 +4766,7 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
@@ -4739,40 +4777,38 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4835,7 +4871,7 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
@@ -4846,18 +4882,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
@@ -4869,15 +4905,17 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -4940,7 +4978,7 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>235</v>
+        <v>64</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
@@ -4951,43 +4989,41 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>237</v>
+        <v>153</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5011,13 +5047,13 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
@@ -5046,13 +5082,13 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>243</v>
+        <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>244</v>
+        <v>125</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5060,7 +5096,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5071,7 +5107,7 @@
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
@@ -5080,16 +5116,16 @@
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>147</v>
+        <v>241</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5116,13 +5152,13 @@
         <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
@@ -5151,13 +5187,13 @@
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>251</v>
+        <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5165,7 +5201,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5188,17 +5224,19 @@
         <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>255</v>
+        <v>147</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="N38" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5223,13 +5261,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5258,21 +5296,21 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>261</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5292,16 +5330,16 @@
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>263</v>
+        <v>147</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5328,13 +5366,13 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
@@ -5363,21 +5401,21 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>268</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5388,7 +5426,7 @@
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
@@ -5397,19 +5435,21 @@
         <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5468,21 +5508,21 @@
         <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>40</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5505,13 +5545,13 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5573,21 +5613,21 @@
         <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5598,7 +5638,7 @@
         <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>40</v>
@@ -5610,13 +5650,13 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>53</v>
+        <v>279</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>62</v>
+        <v>280</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>63</v>
+        <v>281</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5681,7 +5721,7 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>64</v>
+        <v>282</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
@@ -5692,11 +5732,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5715,17 +5755,15 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>68</v>
+        <v>284</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -5785,13 +5823,13 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>64</v>
+        <v>287</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -5799,40 +5837,38 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -5895,7 +5931,7 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
@@ -5906,11 +5942,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -5929,18 +5965,18 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>284</v>
+        <v>68</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6002,7 +6038,7 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -6013,38 +6049,40 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>288</v>
+        <v>153</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6069,11 +6107,13 @@
         <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X46" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y46" t="s" s="2">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>40</v>
@@ -6105,10 +6145,10 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>244</v>
+        <v>125</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>291</v>
+        <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>40</v>
@@ -6127,7 +6167,7 @@
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>40</v>
@@ -6139,7 +6179,7 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>293</v>
@@ -6212,10 +6252,10 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>260</v>
+        <v>162</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>296</v>
+        <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>40</v>
@@ -6223,7 +6263,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6231,7 +6271,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>51</v>
@@ -6246,13 +6286,13 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6279,13 +6319,11 @@
         <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
@@ -6317,10 +6355,10 @@
         <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>40</v>
@@ -6328,7 +6366,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6339,7 +6377,7 @@
         <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>40</v>
@@ -6351,19 +6389,17 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>147</v>
+        <v>264</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" s="2"/>
+      <c r="N49" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6388,13 +6424,13 @@
         <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>40</v>
@@ -6423,20 +6459,234 @@
         <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J50" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="K50" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE50" s="2"/>
+      <c r="AF50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG50" s="2"/>
+      <c r="AH50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE51" s="2"/>
+      <c r="AF51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG51" s="2"/>
+      <c r="AH51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM49">
+  <autoFilter ref="A1:AM51">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6446,7 +6696,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI48">
+  <conditionalFormatting sqref="A2:AI50">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
